--- a/utils/localisation_script/test-data/proper-success-case-check/out-meta/hi.xlsx
+++ b/utils/localisation_script/test-data/proper-success-case-check/out-meta/hi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,15 +451,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>PATH</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>a-tag-replacement</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>u</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>v</t>
         </is>
@@ -471,11 +476,7 @@
           <t>(No Username)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>(No Username)</t>
@@ -484,6 +485,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -491,11 +493,7 @@
           <t>10 - 30 (Youth)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>10 - 30 (Youth)</t>
@@ -504,6 +502,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -511,23 +510,20 @@
           <t>&lt;a class="" href="/"&gt;Click Here&lt;/a&gt; to go back to home page</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>&lt;a&gt;Click Here&lt;/a&gt; to go back to home page</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> class="" href="/"</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,23 +531,20 @@
           <t>By proceeding ahead you agree to the &lt;a href="../terms-and-conditions.html" target="_blank"&gt; Terms and Conditions&lt;/a&gt;</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>By proceeding ahead you agree to the &lt;a&gt; Terms and Conditions&lt;/a&gt;</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve"> href="../terms-and-conditions.html" target="_blank"</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -559,23 +552,20 @@
           <t>By proceeding ahead you agree to the &lt;a href="./terms-and-conditions.html" target="_blank"&gt; Terms and Conditions&lt;/a&gt;</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>By proceeding ahead you agree to the &lt;a&gt; Terms and Conditions&lt;/a&gt;</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve"> href="./terms-and-conditions.html" target="_blank"</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -583,11 +573,7 @@
           <t>Contributions</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>Contributions</t>
@@ -596,6 +582,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -603,11 +590,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>Female</t>
@@ -616,6 +599,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -623,11 +607,7 @@
           <t>Language</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>English</t>
@@ -636,6 +616,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -643,11 +624,7 @@
           <t>Get started by clicking on &lt;b&gt;Record&lt;/b&gt; button</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>Get started by clicking on &lt;b&gt;Record&lt;/b&gt; button</t>
@@ -656,6 +633,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -663,11 +641,7 @@
           <t>TO</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>TO</t>
@@ -676,6 +650,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -683,11 +658,7 @@
           <t>Validate More</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>Validate More</t>
@@ -696,6 +667,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -703,23 +675,20 @@
           <t>You’ve earned a &lt;span id="current_badge_name_1"&gt;&lt;/span&gt; Bhasha Samarthak Badge by validating &lt;span id="current_badge_count"&gt;&lt;/span&gt; Images.</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>You’ve earned a &lt;u&gt; Bhasha Samarthak Badge by validating &lt;v&gt; Images.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>&lt;span id="current_badge_name_1"&gt;&lt;/span&gt;</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>&lt;span id="current_badge_count"&gt;&lt;/span&gt;</t>
         </is>
@@ -731,11 +700,7 @@
           <t>image label(s) validated</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>image label(s) validated</t>
@@ -744,6 +709,7 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -751,11 +717,7 @@
           <t>social sharing text with rank</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>I've contributed towards building open language repository for India on https://bhashini.gov.in/bhashadaan You and I can make a difference by donating our voices that can help machines learn our language. Our &lt;x&gt; language ranks &lt;y&gt; on Bolo India. Do your bit and empower the language?</t>
@@ -764,6 +726,7 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -771,23 +734,20 @@
           <t>Your next goal is to reach &lt;span id="next_badge_count"&gt;&lt;/span&gt; images to earn your &lt;span id="next_badge_name_1"&gt;&lt;/span&gt; Bhasha Samarthak Badge.</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>Your next goal is to reach &lt;u&gt; images to earn your &lt;v&gt; Bhasha Samarthak Badge.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>&lt;span id="next_badge_count"&gt;&lt;/span&gt;</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>&lt;span id="next_badge_name_1"&gt;&lt;/span&gt;</t>
         </is>
